--- a/_03_HCLoad_and_Envelope/EnvelopePerformanceSimpleTestCase.xlsx
+++ b/_03_HCLoad_and_Envelope/EnvelopePerformanceSimpleTestCase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A4C72AD4-68BA-439E-9200-87AF9D0F99DA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D5A520A1-7A20-4CBA-A52C-85FA60A5D102}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7778" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="定義表" sheetId="1" r:id="rId1"/>
@@ -2208,8 +2208,8 @@
   </sheetPr>
   <dimension ref="B1:EV26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -12079,16 +12079,16 @@
         <v>6.13</v>
       </c>
       <c r="BU24" s="23">
-        <v>6.18</v>
+        <v>6.14</v>
       </c>
       <c r="BV24" s="23">
-        <v>6.18</v>
+        <v>6.14</v>
       </c>
       <c r="BW24" s="23">
-        <v>6.18</v>
+        <v>6.14</v>
       </c>
       <c r="BX24" s="23">
-        <v>6.18</v>
+        <v>6.14</v>
       </c>
       <c r="BY24" s="23">
         <v>6.08</v>
@@ -12196,10 +12196,10 @@
         <v>6.14</v>
       </c>
       <c r="DH24" s="23">
-        <v>6.14</v>
+        <v>6.26</v>
       </c>
       <c r="DI24" s="23">
-        <v>6.14</v>
+        <v>6.26</v>
       </c>
       <c r="DJ24" s="23">
         <v>6.1</v>
@@ -12307,16 +12307,16 @@
         <v>6.3199999999999994</v>
       </c>
       <c r="ES24" s="23">
-        <v>6.18</v>
+        <v>6.14</v>
       </c>
       <c r="ET24" s="23">
-        <v>6.18</v>
+        <v>6.14</v>
       </c>
       <c r="EU24" s="23">
-        <v>6.18</v>
+        <v>6.14</v>
       </c>
       <c r="EV24" s="23">
-        <v>6.18</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="25" spans="2:152">
@@ -12615,10 +12615,10 @@
         <v>13.9</v>
       </c>
       <c r="DH25" s="24">
-        <v>13.9</v>
+        <v>13.5</v>
       </c>
       <c r="DI25" s="24">
-        <v>13.9</v>
+        <v>13.5</v>
       </c>
       <c r="DJ25" s="24">
         <v>13.9</v>
@@ -12764,7 +12764,7 @@
         <v>14.8</v>
       </c>
       <c r="V26" s="24" t="s">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c r="W26" s="24">
         <v>14.1</v>
@@ -13034,10 +13034,10 @@
         <v>14.7</v>
       </c>
       <c r="DH26" s="24">
-        <v>14.7</v>
+        <v>14.1</v>
       </c>
       <c r="DI26" s="24">
-        <v>14.7</v>
+        <v>14.1</v>
       </c>
       <c r="DJ26" s="24">
         <v>14.7</v>
@@ -13378,7 +13378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F972A94-08CB-414F-B39A-7BEAD54219C3}">
   <dimension ref="A1:X139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
@@ -17815,7 +17815,7 @@
         <v>1.8</v>
       </c>
       <c r="V60">
-        <v>6.18</v>
+        <v>6.14</v>
       </c>
       <c r="W60">
         <v>13.9</v>
@@ -17889,7 +17889,7 @@
         <v>1.8</v>
       </c>
       <c r="V61">
-        <v>6.18</v>
+        <v>6.14</v>
       </c>
       <c r="W61">
         <v>13.9</v>
@@ -17963,7 +17963,7 @@
         <v>1.8</v>
       </c>
       <c r="V62">
-        <v>6.18</v>
+        <v>6.14</v>
       </c>
       <c r="W62">
         <v>13.9</v>
@@ -18037,7 +18037,7 @@
         <v>1.8</v>
       </c>
       <c r="V63">
-        <v>6.18</v>
+        <v>6.14</v>
       </c>
       <c r="W63">
         <v>13.9</v>
@@ -20701,13 +20701,13 @@
         <v>1.8</v>
       </c>
       <c r="V99">
-        <v>6.14</v>
+        <v>6.26</v>
       </c>
       <c r="W99">
-        <v>13.9</v>
+        <v>13.5</v>
       </c>
       <c r="X99">
-        <v>14.7</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="100" spans="1:24">
@@ -20775,13 +20775,13 @@
         <v>1.8</v>
       </c>
       <c r="V100">
-        <v>6.14</v>
+        <v>6.26</v>
       </c>
       <c r="W100">
-        <v>13.9</v>
+        <v>13.5</v>
       </c>
       <c r="X100">
-        <v>14.7</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="101" spans="1:24">
@@ -23439,7 +23439,7 @@
         <v>0</v>
       </c>
       <c r="V136">
-        <v>6.18</v>
+        <v>6.14</v>
       </c>
       <c r="W136">
         <v>13.9</v>
@@ -23513,7 +23513,7 @@
         <v>1.8</v>
       </c>
       <c r="V137">
-        <v>6.18</v>
+        <v>6.14</v>
       </c>
       <c r="W137">
         <v>13.9</v>
@@ -23587,7 +23587,7 @@
         <v>9.9990000000000006</v>
       </c>
       <c r="V138">
-        <v>6.18</v>
+        <v>6.14</v>
       </c>
       <c r="W138">
         <v>13.9</v>
@@ -23661,7 +23661,7 @@
         <v>10</v>
       </c>
       <c r="V139">
-        <v>6.18</v>
+        <v>6.14</v>
       </c>
       <c r="W139">
         <v>13.9</v>
